--- a/cal_template.xlsx
+++ b/cal_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dredden/Dropbox/Documents/PythonDocs/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4A5733-E95B-1B4C-AB67-49E26990C6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58283EC3-A17D-894E-A466-452A37ABA4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{497176CF-A5EE-8A46-A401-F181661686BD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{497176CF-A5EE-8A46-A401-F181661686BD}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="377">
   <si>
     <t>America/New_York</t>
   </si>
@@ -1166,9 +1166,6 @@
   </si>
   <si>
     <t>Blank "Calendar Name" will use the default "Primary" account</t>
-  </si>
-  <si>
-    <t>Note: On previous pages, click "Unprotect Sheet" to change column widths.</t>
   </si>
 </sst>
 </file>
@@ -1549,9 +1546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6581A1A-2356-6A4A-B55C-F4C3B66F9488}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1699,9 +1694,6 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
-      <c r="I7" s="3" t="s">
-        <v>362</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="4"/>
@@ -1785,9 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA851FD-3022-B141-8240-D3CFBDE799C8}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1946,11 +1936,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8F3CA1-74F0-994D-94A8-6018EFAD7123}">
-  <dimension ref="A1:G350"/>
+  <dimension ref="A1:E350"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1958,7 +1946,7 @@
     <col min="5" max="5" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>350</v>
       </c>
@@ -1968,11 +1956,8 @@
       <c r="E1" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1983,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -1994,7 +1979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2005,7 +1990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2016,7 +2001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>365</v>
       </c>
@@ -2024,52 +2009,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>15</v>
       </c>
